--- a/03.COMP 513 - Computational Mathematics and Models I/01.COMP_513_Assignment_1_ex2007.xlsx
+++ b/03.COMP 513 - Computational Mathematics and Models I/01.COMP_513_Assignment_1_ex2007.xlsx
@@ -192,12 +192,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -210,36 +234,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -360,13 +363,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>123824</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>761999</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
@@ -377,8 +380,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="733425" y="161926"/>
-          <a:ext cx="1600200" cy="457200"/>
+          <a:off x="1609724" y="1828801"/>
+          <a:ext cx="2124075" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="bracketPair">
           <a:avLst/>
@@ -463,14 +466,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
@@ -481,8 +484,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1390650" y="2781301"/>
-          <a:ext cx="2371725" cy="600075"/>
+          <a:off x="1495425" y="2781301"/>
+          <a:ext cx="2238375" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="bracketPair">
           <a:avLst/>
@@ -567,59 +570,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>258763</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Connector 10"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1695450" y="5019675"/>
-          <a:ext cx="342900" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -630,8 +588,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1143000" y="4743450"/>
-          <a:ext cx="1362075" cy="1038225"/>
+          <a:off x="1476375" y="4743450"/>
+          <a:ext cx="1514475" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="bracketPair">
           <a:avLst/>
@@ -665,15 +623,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -682,8 +640,60 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1257300" y="5857875"/>
-          <a:ext cx="1962150" cy="895350"/>
+          <a:off x="1600200" y="5610225"/>
+          <a:ext cx="2009775" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bracketPair">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Double Bracket 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3724275" y="6648450"/>
+          <a:ext cx="1228725" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="bracketPair">
           <a:avLst/>
@@ -717,70 +727,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>258763</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Connector 13"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1714500" y="7181850"/>
-          <a:ext cx="342900" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Double Bracket 14"/>
+        <xdr:cNvPr id="17" name="Double Bracket 16"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1143000" y="4743450"/>
-          <a:ext cx="1628775" cy="1038225"/>
+          <a:off x="1504950" y="6677025"/>
+          <a:ext cx="2038349" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="bracketPair">
           <a:avLst/>
@@ -813,111 +778,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Double Bracket 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2886075" y="6934200"/>
-          <a:ext cx="1676400" cy="1152525"/>
-        </a:xfrm>
-        <a:prstGeom prst="bracketPair">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>258763</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Connector 17"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1704975" y="8391525"/>
-          <a:ext cx="342900" cy="1588"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -928,8 +796,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1143000" y="6905625"/>
-          <a:ext cx="1628775" cy="1038225"/>
+          <a:off x="1476375" y="8115300"/>
+          <a:ext cx="1495425" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="bracketPair">
           <a:avLst/>
@@ -2810,1426 +2678,1440 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="8.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="10.85546875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="8.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="B3" s="4"/>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="B3" s="12"/>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" s="5"/>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="B6" s="13"/>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="5"/>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="B7" s="13"/>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="7"/>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="B10" s="14"/>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
         <v>-1</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="B11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="7"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="B17" s="4"/>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
         <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="39">
-      <c r="A21" s="9" t="s">
+      <c r="D19" s="11"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="10">
-        <v>12</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="C21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="B22" s="4"/>
-      <c r="C22" s="3">
+      <c r="B22" s="12"/>
+      <c r="C22" s="2">
         <v>9</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" s="4"/>
-      <c r="C23" s="3">
+      <c r="B23" s="12"/>
+      <c r="C23" s="2">
         <v>-6</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="B26" s="5"/>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="B26" s="13"/>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="B27" s="5"/>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="39">
-      <c r="B29" s="4" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="10">
-        <v>12</v>
-      </c>
-      <c r="D29" s="11">
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="6">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="B30" s="5"/>
-      <c r="C30" s="3">
+      <c r="B30" s="13"/>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
         <v>9</v>
       </c>
-      <c r="D30" s="3">
+      <c r="G30" s="2">
         <v>4</v>
       </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="B31" s="5"/>
-      <c r="C31" s="3">
+      <c r="B31" s="13"/>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
         <v>-6</v>
       </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="39">
-      <c r="B33" s="4" t="s">
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="B33" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="10">
-        <v>12</v>
-      </c>
-      <c r="D33" s="11">
+      <c r="C33" s="9">
+        <f t="array" ref="C33:D35">MMULT(C29:E31,F29:G31)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="B34" s="5"/>
-      <c r="C34" s="3">
+      <c r="B34" s="13"/>
+      <c r="C34" s="9">
         <v>9</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="B35" s="5"/>
-      <c r="C35" s="3">
+      <c r="B35" s="13"/>
+      <c r="C35" s="9">
         <v>-6</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="8"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>-2</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>3</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="B40" s="5"/>
-      <c r="C40" s="3">
-        <v>0</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="B40" s="13"/>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="B41" s="5"/>
-      <c r="C41" s="3">
+      <c r="B41" s="13"/>
+      <c r="C41" s="2">
         <v>4</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>-1</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="B44" s="5"/>
-      <c r="C44" s="3">
-        <v>0</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="B44" s="13"/>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="B45" s="5"/>
-      <c r="C45" s="3">
-        <v>0</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="B45" s="13"/>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>-2</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="B48" s="5"/>
-      <c r="C48" s="3">
-        <v>0</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="B48" s="13"/>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="5"/>
-      <c r="C49" s="3">
+      <c r="B49" s="13"/>
+      <c r="C49" s="2">
         <v>4</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>-1</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
+        <f t="array" ref="C51:E53">MMULT(C47:E49,F47:H49)</f>
         <v>-2</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>3</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="5"/>
-      <c r="C52" s="3">
-        <v>0</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="B52" s="13"/>
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="5"/>
-      <c r="C53" s="3">
+      <c r="B53" s="13"/>
+      <c r="C53" s="2">
         <v>4</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <v>-1</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
-      <c r="D55" s="3">
-        <v>0</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
         <v>-2</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="2">
         <v>3</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="5"/>
-      <c r="C56" s="3">
-        <v>0</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0</v>
-      </c>
-      <c r="H56" s="3">
+      <c r="B56" s="13"/>
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="5"/>
-      <c r="C57" s="3">
-        <v>0</v>
-      </c>
-      <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="B57" s="13"/>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
         <v>4</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="2">
         <v>-1</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
+        <f t="array" ref="C59:E61">MMULT(C55:E57,F55:H57)</f>
         <v>-2</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <v>3</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="5"/>
-      <c r="C60" s="3">
-        <v>0</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3">
+      <c r="B60" s="13"/>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="5"/>
-      <c r="C61" s="3">
+      <c r="B61" s="13"/>
+      <c r="C61" s="2">
         <v>4</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <v>-1</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:8">
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="8"/>
+      <c r="D64" s="11"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="3" t="s">
+      <c r="C67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F67" s="9">
         <v>0.5</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="6">
         <v>4</v>
       </c>
-      <c r="L67" s="16"/>
-      <c r="M67" s="11"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="6"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="B68" s="5"/>
-      <c r="C68" s="3">
-        <v>1</v>
-      </c>
-      <c r="D68" s="3">
-        <v>0</v>
-      </c>
-      <c r="E68" s="3">
+      <c r="B68" s="13"/>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
         <v>-1</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="2">
         <v>9</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="B69" s="5"/>
-      <c r="F69" s="3">
+      <c r="B69" s="13"/>
+      <c r="F69" s="2">
         <v>-6</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="B70" s="12"/>
+      <c r="B70" s="7"/>
     </row>
     <row r="71" spans="1:13" ht="18.75" customHeight="1">
-      <c r="B71" s="11"/>
+      <c r="B71" s="6"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8" t="s">
+      <c r="D72" s="11"/>
+      <c r="E72" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F72" s="8"/>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" spans="1:13">
-      <c r="B73" s="2"/>
-      <c r="C73" s="14" t="s">
+      <c r="B73" s="17"/>
+      <c r="C73" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="8" t="s">
+      <c r="D73" s="16"/>
+      <c r="E73" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F73" s="8"/>
+      <c r="F73" s="11"/>
     </row>
     <row r="75" spans="1:13">
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="8">
         <v>-2.0089999999999999</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="2">
         <v>18.225000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="B76" s="2"/>
-      <c r="C76" s="3">
+      <c r="B76" s="17"/>
+      <c r="C76" s="2">
         <v>6.5</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:13" customFormat="1" ht="15"/>
     <row r="78" spans="1:13">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:13">
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D79" s="3">
+      <c r="C79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="B80" s="4"/>
-      <c r="C80" s="3" t="s">
+      <c r="B80" s="12"/>
+      <c r="C80" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="B81" s="4"/>
-      <c r="C81" s="3" t="s">
+      <c r="D80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="B81" s="12"/>
+      <c r="C81" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
-      <c r="B83" s="4" t="s">
+    <row r="83" spans="1:11">
+      <c r="B83" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" s="3">
-        <v>1</v>
-      </c>
-      <c r="F83" s="16">
+      <c r="C83" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+      <c r="F83" s="9">
         <v>0.5</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G83" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
-      <c r="B84" s="4"/>
-      <c r="C84" s="3" t="s">
+    <row r="84" spans="1:11">
+      <c r="B84" s="12"/>
+      <c r="C84" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D84" s="3">
-        <v>0</v>
-      </c>
-      <c r="E84" s="3" t="s">
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="2">
         <v>9</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
-      <c r="B85" s="4"/>
-      <c r="C85" s="3" t="s">
+    <row r="85" spans="1:11">
+      <c r="B85" s="12"/>
+      <c r="C85" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="2">
         <v>-1</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="2">
         <v>-6</v>
       </c>
-      <c r="G85" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="B87" s="4" t="s">
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="B87" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="10">
+        <f>3.142+F83</f>
         <v>3.6419999999999999</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="2">
+        <f>D83+G83</f>
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
-      <c r="B88" s="4"/>
-      <c r="C88" s="3">
+    <row r="88" spans="1:11">
+      <c r="B88" s="12"/>
+      <c r="C88" s="4">
         <v>10.414</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="4">
+        <f>D84+G84</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="B89" s="4"/>
-      <c r="C89" s="3">
+      <c r="J88" s="10"/>
+      <c r="K88" s="4"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="B89" s="12"/>
+      <c r="C89" s="4">
         <v>-3.282</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="4">
+        <f>D85+G85</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="B90" s="11"/>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="3" t="s">
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="B90" s="6"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B91" s="11"/>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="B92" s="4" t="s">
+      <c r="B91" s="6"/>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="B92" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="2">
         <v>-2</v>
       </c>
-      <c r="D92" s="3">
-        <v>0</v>
-      </c>
-      <c r="E92" s="3">
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
-      <c r="B93" s="4"/>
-      <c r="C93" s="3">
+    <row r="93" spans="1:11">
+      <c r="B93" s="12"/>
+      <c r="C93" s="2">
         <v>3</v>
       </c>
-      <c r="D93" s="3">
-        <v>0</v>
-      </c>
-      <c r="E93" s="3">
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
-      <c r="B94" s="4"/>
-      <c r="C94" s="3">
-        <v>1</v>
-      </c>
-      <c r="D94" s="3">
+    <row r="94" spans="1:11">
+      <c r="B94" s="12"/>
+      <c r="C94" s="2">
+        <v>1</v>
+      </c>
+      <c r="D94" s="2">
         <v>5</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="B95" s="11"/>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="B96" s="4" t="s">
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="B95" s="6"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="B96" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="5"/>
+      <c r="D96" s="2">
+        <v>-2</v>
+      </c>
+      <c r="E96" s="2">
+        <v>3</v>
+      </c>
+      <c r="F96" s="2">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2">
+        <v>-2</v>
+      </c>
+      <c r="I96" s="2">
+        <v>0</v>
+      </c>
+      <c r="J96" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="B97" s="12"/>
+      <c r="C97" s="5">
         <v>2</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
+        <v>5</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H97" s="2">
+        <v>3</v>
+      </c>
+      <c r="I97" s="2">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="B98" s="12"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="2">
+        <v>4</v>
+      </c>
+      <c r="E98" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0</v>
+      </c>
+      <c r="H98" s="2">
+        <v>1</v>
+      </c>
+      <c r="I98" s="2">
+        <v>5</v>
+      </c>
+      <c r="J98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="B100" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="2">
+        <f t="array" ref="C100:E102">C97*D96:F98</f>
+        <v>-4</v>
+      </c>
+      <c r="D100" s="4">
+        <v>6</v>
+      </c>
+      <c r="E100" s="4">
+        <v>2</v>
+      </c>
+      <c r="G100" s="2">
         <v>-2</v>
       </c>
-      <c r="E96" s="3">
+      <c r="H100" s="2">
+        <v>0</v>
+      </c>
+      <c r="I100" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="B101" s="12"/>
+      <c r="C101" s="4">
+        <v>0</v>
+      </c>
+      <c r="D101" s="4">
+        <v>0</v>
+      </c>
+      <c r="E101" s="4">
+        <v>10</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G101" s="2">
         <v>3</v>
       </c>
-      <c r="F96" s="3">
-        <v>1</v>
-      </c>
-      <c r="H96" s="3">
+      <c r="H101" s="2">
+        <v>0</v>
+      </c>
+      <c r="I101" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="B102" s="12"/>
+      <c r="C102" s="4">
+        <v>8</v>
+      </c>
+      <c r="D102" s="2">
         <v>-2</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="3">
-        <v>0</v>
-      </c>
-      <c r="E97" s="3">
-        <v>0</v>
-      </c>
-      <c r="F97" s="3">
+      <c r="E102" s="2">
+        <v>0</v>
+      </c>
+      <c r="G102" s="2">
+        <v>1</v>
+      </c>
+      <c r="H102" s="2">
         <v>5</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H97" s="3">
-        <v>3</v>
-      </c>
-      <c r="I97" s="3">
-        <v>0</v>
-      </c>
-      <c r="J97" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="3">
-        <v>4</v>
-      </c>
-      <c r="E98" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F98" s="3">
-        <v>0</v>
-      </c>
-      <c r="H98" s="3">
-        <v>1</v>
-      </c>
-      <c r="I98" s="3">
-        <v>5</v>
-      </c>
-      <c r="J98" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="B100" s="4" t="s">
+      <c r="I102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="B104" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="3">
-        <v>-4</v>
-      </c>
-      <c r="D100" s="3">
-        <v>6</v>
-      </c>
-      <c r="E100" s="3">
-        <v>2</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-2</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
-      <c r="B101" s="4"/>
-      <c r="C101" s="3">
-        <v>0</v>
-      </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>10</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G101" s="3">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
-      <c r="B102" s="4"/>
-      <c r="C102" s="3">
-        <v>8</v>
-      </c>
-      <c r="D102" s="3">
-        <v>-2</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>1</v>
-      </c>
-      <c r="H102" s="3">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
-      <c r="B104" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" s="3">
+      <c r="C104" s="2">
         <f t="array" ref="C104:E106">(C100:E102)+(G100:I102)</f>
         <v>-6</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="2">
         <v>6</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:12">
-      <c r="B105" s="4"/>
-      <c r="C105" s="3">
+      <c r="B105" s="12"/>
+      <c r="C105" s="2">
         <v>3</v>
       </c>
-      <c r="D105" s="3">
-        <v>0</v>
-      </c>
-      <c r="E105" s="3">
+      <c r="D105" s="2">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:12">
-      <c r="B106" s="4"/>
-      <c r="C106" s="3">
+      <c r="B106" s="12"/>
+      <c r="C106" s="2">
         <v>9</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="2">
         <v>3</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:12">
-      <c r="B107" s="11"/>
+      <c r="B107" s="6"/>
     </row>
     <row r="108" spans="1:12">
-      <c r="B108" s="11"/>
+      <c r="B108" s="6"/>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:12">
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4">
+      <c r="C110" s="12"/>
+      <c r="D110" s="12">
         <v>5</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="2">
         <v>-2</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110" s="2">
         <v>3</v>
       </c>
-      <c r="G110" s="3">
-        <v>1</v>
-      </c>
-      <c r="I110" s="4">
+      <c r="G110" s="2">
+        <v>1</v>
+      </c>
+      <c r="I110" s="12">
         <v>2</v>
       </c>
-      <c r="J110" s="3">
+      <c r="J110" s="2">
         <v>-2</v>
       </c>
-      <c r="K110" s="3">
-        <v>0</v>
-      </c>
-      <c r="L110" s="3">
+      <c r="K110" s="2">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:12">
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="3">
-        <v>0</v>
-      </c>
-      <c r="F111" s="3">
-        <v>0</v>
-      </c>
-      <c r="G111" s="3">
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="2">
+        <v>0</v>
+      </c>
+      <c r="F111" s="2">
+        <v>0</v>
+      </c>
+      <c r="G111" s="2">
         <v>5</v>
       </c>
-      <c r="H111" s="3" t="s">
+      <c r="H111" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I111" s="4"/>
-      <c r="J111" s="3">
+      <c r="I111" s="12"/>
+      <c r="J111" s="2">
         <v>3</v>
       </c>
-      <c r="K111" s="3">
-        <v>0</v>
-      </c>
-      <c r="L111" s="3">
+      <c r="K111" s="2">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2">
         <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:12">
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="3">
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="2">
         <v>4</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="2">
         <v>-1</v>
       </c>
-      <c r="G112" s="3">
-        <v>0</v>
-      </c>
-      <c r="I112" s="4"/>
-      <c r="J112" s="3">
-        <v>1</v>
-      </c>
-      <c r="K112" s="3">
+      <c r="G112" s="2">
+        <v>0</v>
+      </c>
+      <c r="I112" s="12"/>
+      <c r="J112" s="2">
+        <v>1</v>
+      </c>
+      <c r="K112" s="2">
         <v>5</v>
       </c>
-      <c r="L112" s="3">
+      <c r="L112" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="D114" s="3">
+      <c r="D114" s="2">
         <f t="array" ref="D114:F116">5*(E110:G112)</f>
         <v>-10</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="2">
         <v>15</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="2">
         <v>5</v>
       </c>
-      <c r="H114" s="3">
+      <c r="H114" s="2">
         <f t="array" ref="H114:J116">2*(J110:L112)</f>
         <v>-4</v>
       </c>
-      <c r="I114" s="3">
-        <v>0</v>
-      </c>
-      <c r="J114" s="3">
+      <c r="I114" s="2">
+        <v>0</v>
+      </c>
+      <c r="J114" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:10">
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D115" s="3">
-        <v>0</v>
-      </c>
-      <c r="E115" s="3">
-        <v>0</v>
-      </c>
-      <c r="F115" s="3">
+      <c r="D115" s="2">
+        <v>0</v>
+      </c>
+      <c r="E115" s="2">
+        <v>0</v>
+      </c>
+      <c r="F115" s="2">
         <v>25</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="G115" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H115" s="3">
+      <c r="H115" s="2">
         <v>6</v>
       </c>
-      <c r="I115" s="3">
-        <v>0</v>
-      </c>
-      <c r="J115" s="3">
+      <c r="I115" s="2">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2">
         <v>-2</v>
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="D116" s="3">
+      <c r="D116" s="2">
         <v>20</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="2">
         <v>-5</v>
       </c>
-      <c r="F116" s="3">
-        <v>0</v>
-      </c>
-      <c r="H116" s="3">
+      <c r="F116" s="2">
+        <v>0</v>
+      </c>
+      <c r="H116" s="2">
         <v>2</v>
       </c>
-      <c r="I116" s="3">
+      <c r="I116" s="2">
         <v>10</v>
       </c>
-      <c r="J116" s="3">
+      <c r="J116" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="D118" s="3">
+      <c r="D118" s="2">
         <f t="array" ref="D118:F120">(D114:F116)+(H114:J116)</f>
         <v>-14</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="2">
         <v>15</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:10">
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="2">
         <v>6</v>
       </c>
-      <c r="E119" s="3">
-        <v>0</v>
-      </c>
-      <c r="F119" s="3">
+      <c r="E119" s="2">
+        <v>0</v>
+      </c>
+      <c r="F119" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:10">
-      <c r="D120" s="3">
+      <c r="D120" s="2">
         <v>22</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="2">
         <v>5</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F120" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:10">
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="2">
         <v>-2</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D123" s="2">
         <v>3</v>
       </c>
-      <c r="E123" s="3">
-        <v>1</v>
-      </c>
-      <c r="F123" s="3">
+      <c r="E123" s="2">
+        <v>1</v>
+      </c>
+      <c r="F123" s="2">
         <f t="array" ref="F123:H125">TRANSPOSE(C123:E125)</f>
         <v>-2</v>
       </c>
-      <c r="G123" s="3">
-        <v>0</v>
-      </c>
-      <c r="H123" s="3">
+      <c r="G123" s="2">
+        <v>0</v>
+      </c>
+      <c r="H123" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:10">
-      <c r="B124" s="4"/>
-      <c r="C124" s="3">
-        <v>0</v>
-      </c>
-      <c r="D124" s="3">
-        <v>0</v>
-      </c>
-      <c r="E124" s="3">
+      <c r="B124" s="12"/>
+      <c r="C124" s="2">
+        <v>0</v>
+      </c>
+      <c r="D124" s="2">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2">
         <v>5</v>
       </c>
-      <c r="F124" s="3">
+      <c r="F124" s="2">
         <v>3</v>
       </c>
-      <c r="G124" s="3">
-        <v>0</v>
-      </c>
-      <c r="H124" s="3">
+      <c r="G124" s="2">
+        <v>0</v>
+      </c>
+      <c r="H124" s="2">
         <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:10">
-      <c r="B125" s="4"/>
-      <c r="C125" s="3">
+      <c r="B125" s="12"/>
+      <c r="C125" s="2">
         <v>4</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125" s="2">
         <v>-1</v>
       </c>
-      <c r="E125" s="3">
-        <v>0</v>
-      </c>
-      <c r="F125" s="3">
-        <v>1</v>
-      </c>
-      <c r="G125" s="3">
+      <c r="E125" s="2">
+        <v>0</v>
+      </c>
+      <c r="F125" s="2">
+        <v>1</v>
+      </c>
+      <c r="G125" s="2">
         <v>5</v>
       </c>
-      <c r="H125" s="3">
+      <c r="H125" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:10">
-      <c r="C127" s="3">
+      <c r="C127" s="2">
         <f t="array" ref="C127:E129">MMULT(C123:E125,F123:H125)</f>
         <v>14</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D127" s="2">
         <v>5</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127" s="2">
         <v>-11</v>
       </c>
     </row>
     <row r="128" spans="1:10">
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="2">
         <v>5</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D128" s="2">
         <v>25</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="3:5">
-      <c r="C129" s="3">
+      <c r="C129" s="2">
         <v>-11</v>
       </c>
-      <c r="D129" s="3">
-        <v>0</v>
-      </c>
-      <c r="E129" s="3">
+      <c r="D129" s="2">
+        <v>0</v>
+      </c>
+      <c r="E129" s="2">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="36">
     <mergeCell ref="B123:B125"/>
     <mergeCell ref="B100:B102"/>
     <mergeCell ref="B104:B106"/>
@@ -4239,7 +4121,6 @@
     <mergeCell ref="B83:B85"/>
     <mergeCell ref="B87:B89"/>
     <mergeCell ref="B96:B98"/>
-    <mergeCell ref="C96:C98"/>
     <mergeCell ref="B92:B94"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="E73:F73"/>
